--- a/data/base_template.xlsx
+++ b/data/base_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pp-brandon/Projects/uiowa-atr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A9BA40-FC46-D344-A757-4EA87FB0E4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3922BEAA-174D-B241-AB4B-6EBFA1C82E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15540" xr2:uid="{6E5A2B53-C873-824B-9BC6-5BAB7CA0DB03}"/>
+    <workbookView xWindow="34640" yWindow="1760" windowWidth="27240" windowHeight="15540" xr2:uid="{6E5A2B53-C873-824B-9BC6-5BAB7CA0DB03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Resource:</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>SUBSCRIPTION_MONTHLY</t>
+  </si>
+  <si>
+    <t>notice</t>
   </si>
 </sst>
 </file>
@@ -266,9 +269,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,20 +294,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,141 +611,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCB86A5-AC33-B24E-928D-A4C8AF8A6D5F}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="6" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7" t="s">
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="8" t="s">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="X2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>